--- a/ciu.xlsx
+++ b/ciu.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dini.adi\Documents\DPAP_DINI\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindanirmala/Documents/agus.afiantara/python_project/financial-distress/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D66DC0-9B96-B845-A5E1-40023D58782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$187</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
   <si>
     <t>BankId</t>
   </si>
@@ -597,12 +598,141 @@
   </si>
   <si>
     <t>PT BPRS Asri Madani Nusantara</t>
+  </si>
+  <si>
+    <t>PT BPR Mega Karsa Mandiri</t>
+  </si>
+  <si>
+    <t>PT BPR Cinere Artha Raya</t>
+  </si>
+  <si>
+    <t>PT BPR Sisibahari Dana</t>
+  </si>
+  <si>
+    <t>PT BPR Bintang Ekonomi Sejahtera</t>
+  </si>
+  <si>
+    <t>PT BPR Nusa Galang Makmur</t>
+  </si>
+  <si>
+    <t>PT BPR EDCCASH</t>
+  </si>
+  <si>
+    <t>PT BPR Kudamas Sentosa</t>
+  </si>
+  <si>
+    <t>PT BPR Mustika Utama Kolaka</t>
+  </si>
+  <si>
+    <t>PT BPR Dhasatra Artha Sempurna</t>
+  </si>
+  <si>
+    <t>PT BPR Nova Trijaya</t>
+  </si>
+  <si>
+    <t>PT BPR Pancadana</t>
+  </si>
+  <si>
+    <t>PT BPR Legian</t>
+  </si>
+  <si>
+    <t>PT BPR Aceh Utara</t>
+  </si>
+  <si>
+    <t>PT BPR LPN Kampung Baru</t>
+  </si>
+  <si>
+    <t>PT BPR Cahaya Nagari</t>
+  </si>
+  <si>
+    <t>PT BPR Carano Nagari</t>
+  </si>
+  <si>
+    <t>BPR LPN Kampung Manggis</t>
+  </si>
+  <si>
+    <t>PT BPR Mitra Danagung</t>
+  </si>
+  <si>
+    <t>PT BPR Arthasraya Sejahtera</t>
+  </si>
+  <si>
+    <t>PT BPR Bina Dian Citra</t>
+  </si>
+  <si>
+    <t>PT BPR Cita Makmur Lestari</t>
+  </si>
+  <si>
+    <t>PT BPR Lumasindo Perkasa Putra</t>
+  </si>
+  <si>
+    <t>PT BPR Kop. Jawa Barat</t>
+  </si>
+  <si>
+    <t>PT BPR Mutiara Artha Pratama</t>
+  </si>
+  <si>
+    <t>PT BPR Sinar Baru Perkasa</t>
+  </si>
+  <si>
+    <t>PT BPR Artha Dharma</t>
+  </si>
+  <si>
+    <t>PT BPR Cakra Dharma Artamandiri</t>
+  </si>
+  <si>
+    <t>PT BPR Kujang Artha Sembada</t>
+  </si>
+  <si>
+    <t>PT BPR KS Bali Agung Sedana</t>
+  </si>
+  <si>
+    <t>PT BPR Tugu Kencana</t>
+  </si>
+  <si>
+    <t>PT BPR Akarumi</t>
+  </si>
+  <si>
+    <t>PT BPR Agra Arthaka Mulya</t>
+  </si>
+  <si>
+    <t>PT BPR Sambas Arta</t>
+  </si>
+  <si>
+    <t>PT BPR Mitra Bunda Mandiri</t>
+  </si>
+  <si>
+    <t>PT BPR Sinarenam Permai Jatiasih</t>
+  </si>
+  <si>
+    <t>PT BPR Budisetia</t>
+  </si>
+  <si>
+    <t>PT BPR Indomitra Mega Kapital</t>
+  </si>
+  <si>
+    <t>PT BPR Vox Modern Danamitra</t>
+  </si>
+  <si>
+    <t>PT BPR Bungo Mandiri</t>
+  </si>
+  <si>
+    <t>PT BPRS Al-Hidayah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PT BPRS Safir Bengkulu</t>
+  </si>
+  <si>
+    <t>PT BPRS Jabal Tsur</t>
+  </si>
+  <si>
+    <t>PT BPRS Hidayah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -914,21 +1044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>31300085</v>
       </c>
@@ -956,7 +1086,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>31600008</v>
       </c>
@@ -970,7 +1100,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>31600013</v>
       </c>
@@ -984,7 +1114,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>31600015</v>
       </c>
@@ -998,7 +1128,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>31600018</v>
       </c>
@@ -1012,7 +1142,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>31600021</v>
       </c>
@@ -1026,7 +1156,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31600024</v>
       </c>
@@ -1040,7 +1170,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>33600019</v>
       </c>
@@ -1054,7 +1184,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31300029</v>
       </c>
@@ -1068,7 +1198,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>31300184</v>
       </c>
@@ -1082,7 +1212,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>31300217</v>
       </c>
@@ -1096,7 +1226,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>31400060</v>
       </c>
@@ -1110,7 +1240,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>31400063</v>
       </c>
@@ -1124,7 +1254,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>31500016</v>
       </c>
@@ -1138,7 +1268,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>31500017</v>
       </c>
@@ -1152,7 +1282,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>31600001</v>
       </c>
@@ -1166,7 +1296,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>31600012</v>
       </c>
@@ -1180,7 +1310,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>31600014</v>
       </c>
@@ -1194,7 +1324,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>31600017</v>
       </c>
@@ -1208,7 +1338,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>31600022</v>
       </c>
@@ -1222,7 +1352,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>31600025</v>
       </c>
@@ -1236,7 +1366,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31600038</v>
       </c>
@@ -1250,7 +1380,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31600040</v>
       </c>
@@ -1264,7 +1394,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>31600042</v>
       </c>
@@ -1278,7 +1408,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31600044</v>
       </c>
@@ -1292,7 +1422,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>31600046</v>
       </c>
@@ -1306,7 +1436,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31600047</v>
       </c>
@@ -1320,7 +1450,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31300232</v>
       </c>
@@ -1334,7 +1464,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31400022</v>
       </c>
@@ -1348,7 +1478,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31400095</v>
       </c>
@@ -1362,7 +1492,7 @@
         <v>43763</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31300229</v>
       </c>
@@ -1376,7 +1506,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31400072</v>
       </c>
@@ -1390,7 +1520,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>40100002</v>
       </c>
@@ -1404,7 +1534,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31800001</v>
       </c>
@@ -1418,7 +1548,7 @@
         <v>43776</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>31300086</v>
       </c>
@@ -1432,7 +1562,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>32300044</v>
       </c>
@@ -1446,7 +1576,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>32300045</v>
       </c>
@@ -1460,7 +1590,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>42300006</v>
       </c>
@@ -1474,7 +1604,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>32100048</v>
       </c>
@@ -1488,7 +1618,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>32500025</v>
       </c>
@@ -1502,7 +1632,7 @@
         <v>43818</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>32500014</v>
       </c>
@@ -1516,7 +1646,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>32500044</v>
       </c>
@@ -1530,7 +1660,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>32600018</v>
       </c>
@@ -1544,7 +1674,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>30300002</v>
       </c>
@@ -1558,7 +1688,7 @@
         <v>43881</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31300209</v>
       </c>
@@ -1572,7 +1702,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>32800005</v>
       </c>
@@ -1586,7 +1716,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>32800006</v>
       </c>
@@ -1600,7 +1730,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>32800023</v>
       </c>
@@ -1614,7 +1744,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>32800024</v>
       </c>
@@ -1628,7 +1758,7 @@
         <v>43914</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>32800004</v>
       </c>
@@ -1642,7 +1772,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>32800011</v>
       </c>
@@ -1656,7 +1786,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>32800015</v>
       </c>
@@ -1670,7 +1800,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>32800019</v>
       </c>
@@ -1684,7 +1814,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>32800021</v>
       </c>
@@ -1698,7 +1828,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>32300056</v>
       </c>
@@ -1712,7 +1842,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>32300040</v>
       </c>
@@ -1726,7 +1856,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>32100044</v>
       </c>
@@ -1740,7 +1870,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>31400070</v>
       </c>
@@ -1754,7 +1884,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>41400012</v>
       </c>
@@ -1768,7 +1898,7 @@
         <v>43987</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>32300110</v>
       </c>
@@ -1782,7 +1912,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>32400038</v>
       </c>
@@ -1796,7 +1926,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>33900001</v>
       </c>
@@ -1810,7 +1940,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>32300055</v>
       </c>
@@ -1824,7 +1954,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>31700023</v>
       </c>
@@ -1838,7 +1968,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>32800001</v>
       </c>
@@ -1852,7 +1982,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>32800003</v>
       </c>
@@ -1866,7 +1996,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>32800020</v>
       </c>
@@ -1880,7 +2010,7 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>31300136</v>
       </c>
@@ -1894,7 +2024,7 @@
         <v>44056</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>30700018</v>
       </c>
@@ -1908,7 +2038,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>31200005</v>
       </c>
@@ -1922,7 +2052,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>31400018</v>
       </c>
@@ -1936,7 +2066,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>31300018</v>
       </c>
@@ -1950,7 +2080,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>31300207</v>
       </c>
@@ -1964,7 +2094,7 @@
         <v>44141</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>30800086</v>
       </c>
@@ -1978,7 +2108,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>32400037</v>
       </c>
@@ -1992,7 +2122,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>33100002</v>
       </c>
@@ -2006,7 +2136,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>33100009</v>
       </c>
@@ -2020,7 +2150,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>30800060</v>
       </c>
@@ -2034,7 +2164,7 @@
         <v>44176</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>30800035</v>
       </c>
@@ -2048,7 +2178,7 @@
         <v>44179</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>32500045</v>
       </c>
@@ -2062,7 +2192,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>30500002</v>
       </c>
@@ -2076,7 +2206,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>30500007</v>
       </c>
@@ -2090,7 +2220,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>33500001</v>
       </c>
@@ -2104,7 +2234,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>33600114</v>
       </c>
@@ -2118,7 +2248,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>33700023</v>
       </c>
@@ -2132,7 +2262,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>32800012</v>
       </c>
@@ -2146,7 +2276,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>30800049</v>
       </c>
@@ -2160,7 +2290,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>31900084</v>
       </c>
@@ -2174,7 +2304,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>30500001</v>
       </c>
@@ -2188,7 +2318,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>32400042</v>
       </c>
@@ -2202,7 +2332,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>33400011</v>
       </c>
@@ -2216,7 +2346,7 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>32300115</v>
       </c>
@@ -2230,7 +2360,7 @@
         <v>44356</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>33500004</v>
       </c>
@@ -2244,7 +2374,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>32300106</v>
       </c>
@@ -2258,7 +2388,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>32400053</v>
       </c>
@@ -2272,7 +2402,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>31400094</v>
       </c>
@@ -2286,7 +2416,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>32200072</v>
       </c>
@@ -2300,7 +2430,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>32200032</v>
       </c>
@@ -2314,7 +2444,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>32300005</v>
       </c>
@@ -2328,7 +2458,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>32300047</v>
       </c>
@@ -2342,7 +2472,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>32400013</v>
       </c>
@@ -2356,7 +2486,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>32400031</v>
       </c>
@@ -2370,7 +2500,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>32400032</v>
       </c>
@@ -2384,7 +2514,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>32400081</v>
       </c>
@@ -2398,7 +2528,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>32500039</v>
       </c>
@@ -2412,7 +2542,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>42500001</v>
       </c>
@@ -2426,7 +2556,7 @@
         <v>44454</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>32400024</v>
       </c>
@@ -2440,7 +2570,7 @@
         <v>44467</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>32400023</v>
       </c>
@@ -2454,7 +2584,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>32400077</v>
       </c>
@@ -2468,7 +2598,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>40400001</v>
       </c>
@@ -2482,7 +2612,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>30300005</v>
       </c>
@@ -2496,7 +2626,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>30400003</v>
       </c>
@@ -2510,7 +2640,7 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>32200028</v>
       </c>
@@ -2524,7 +2654,7 @@
         <v>44488</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>32200029</v>
       </c>
@@ -2538,7 +2668,7 @@
         <v>44490</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>42400011</v>
       </c>
@@ -2552,7 +2682,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>32200011</v>
       </c>
@@ -2566,7 +2696,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>33700003</v>
       </c>
@@ -2580,7 +2710,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>30300034</v>
       </c>
@@ -2594,7 +2724,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>31300063</v>
       </c>
@@ -2608,7 +2738,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>31300141</v>
       </c>
@@ -2622,7 +2752,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>31600045</v>
       </c>
@@ -2636,7 +2766,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>31300025</v>
       </c>
@@ -2650,7 +2780,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>32200017</v>
       </c>
@@ -2664,7 +2794,7 @@
         <v>44629</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>33700010</v>
       </c>
@@ -2678,7 +2808,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>33700011</v>
       </c>
@@ -2692,7 +2822,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>33700012</v>
       </c>
@@ -2706,7 +2836,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>33700013</v>
       </c>
@@ -2720,7 +2850,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>33700014</v>
       </c>
@@ -2734,7 +2864,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>33700016</v>
       </c>
@@ -2748,7 +2878,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>33700017</v>
       </c>
@@ -2762,7 +2892,7 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>31400073</v>
       </c>
@@ -2776,7 +2906,7 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>32500043</v>
       </c>
@@ -2790,7 +2920,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>31500005</v>
       </c>
@@ -2804,7 +2934,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>31400075</v>
       </c>
@@ -2818,7 +2948,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>31500015</v>
       </c>
@@ -2832,7 +2962,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>31600019</v>
       </c>
@@ -2846,7 +2976,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>32200048</v>
       </c>
@@ -2860,7 +2990,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>33200004</v>
       </c>
@@ -2874,7 +3004,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>33600088</v>
       </c>
@@ -2888,7 +3018,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>31300218</v>
       </c>
@@ -2902,7 +3032,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>32400068</v>
       </c>
@@ -2916,7 +3046,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>30800090</v>
       </c>
@@ -2930,7 +3060,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>30800041</v>
       </c>
@@ -2944,7 +3074,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>30800009</v>
       </c>
@@ -2958,7 +3088,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>32500006</v>
       </c>
@@ -2972,7 +3102,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>30800012</v>
       </c>
@@ -2986,7 +3116,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>30800045</v>
       </c>
@@ -3000,7 +3130,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>30800051</v>
       </c>
@@ -3014,7 +3144,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>30800063</v>
       </c>
@@ -3028,7 +3158,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>30800078</v>
       </c>
@@ -3042,7 +3172,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>32000003</v>
       </c>
@@ -3056,7 +3186,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>32100049</v>
       </c>
@@ -3070,7 +3200,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>30500009</v>
       </c>
@@ -3084,7 +3214,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>32200016</v>
       </c>
@@ -3098,7 +3228,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>31900111</v>
       </c>
@@ -3112,7 +3242,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>32000032</v>
       </c>
@@ -3126,7 +3256,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>33200001</v>
       </c>
@@ -3140,7 +3270,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>33300007</v>
       </c>
@@ -3154,7 +3284,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>33500024</v>
       </c>
@@ -3168,7 +3298,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>33500025</v>
       </c>
@@ -3182,7 +3312,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>33800012</v>
       </c>
@@ -3196,7 +3326,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>34100002</v>
       </c>
@@ -3210,7 +3340,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>34100010</v>
       </c>
@@ -3224,7 +3354,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>32100004</v>
       </c>
@@ -3238,7 +3368,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>31200024</v>
       </c>
@@ -3252,7 +3382,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>33600035</v>
       </c>
@@ -3266,7 +3396,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>30100002</v>
       </c>
@@ -3280,7 +3410,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>31600023</v>
       </c>
@@ -3294,7 +3424,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>30800019</v>
       </c>
@@ -3308,7 +3438,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>33700002</v>
       </c>
@@ -3322,7 +3452,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>32100022</v>
       </c>
@@ -3336,7 +3466,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>32100023</v>
       </c>
@@ -3350,7 +3480,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>33500026</v>
       </c>
@@ -3364,7 +3494,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>30800037</v>
       </c>
@@ -3378,7 +3508,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>32400047</v>
       </c>
@@ -3392,7 +3522,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>30300001</v>
       </c>
@@ -3406,7 +3536,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>32200073</v>
       </c>
@@ -3420,7 +3550,7 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>42300008</v>
       </c>
@@ -3434,7 +3564,7 @@
         <v>45317</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>31000011</v>
       </c>
@@ -3448,7 +3578,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>31000015</v>
       </c>
@@ -3462,7 +3592,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>32000073</v>
       </c>
@@ -3476,7 +3606,7 @@
         <v>45327</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>32300022</v>
       </c>
@@ -3490,7 +3620,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>31900028</v>
       </c>
@@ -3504,7 +3634,7 @@
         <v>45342</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>30800001</v>
       </c>
@@ -3518,7 +3648,7 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>33600015</v>
       </c>
@@ -3532,7 +3662,7 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>41900010</v>
       </c>
@@ -3546,9 +3676,353 @@
         <v>45401</v>
       </c>
     </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>600073</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>600100</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>600101</v>
+      </c>
+      <c r="C190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>600150</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>600159</v>
+      </c>
+      <c r="C192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>600266</v>
+      </c>
+      <c r="C193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>600775</v>
+      </c>
+      <c r="C194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>600797</v>
+      </c>
+      <c r="C195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>600850</v>
+      </c>
+      <c r="C196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>600861</v>
+      </c>
+      <c r="C197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>600920</v>
+      </c>
+      <c r="C198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>601014</v>
+      </c>
+      <c r="C199" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>601093</v>
+      </c>
+      <c r="C200" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>601156</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>601160</v>
+      </c>
+      <c r="C202" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>601182</v>
+      </c>
+      <c r="C203" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>601212</v>
+      </c>
+      <c r="C204" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>601227</v>
+      </c>
+      <c r="C205" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>601282</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>601298</v>
+      </c>
+      <c r="C207" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>601304</v>
+      </c>
+      <c r="C208" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>601318</v>
+      </c>
+      <c r="C209" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>601327</v>
+      </c>
+      <c r="C210" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>601344</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>601473</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>601741</v>
+      </c>
+      <c r="C213" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>601790</v>
+      </c>
+      <c r="C214" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>601802</v>
+      </c>
+      <c r="C215" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>601836</v>
+      </c>
+      <c r="C216" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>601880</v>
+      </c>
+      <c r="C217" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>601920</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>601980</v>
+      </c>
+      <c r="C219" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>601989</v>
+      </c>
+      <c r="C220" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>602013</v>
+      </c>
+      <c r="C221" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>602060</v>
+      </c>
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>602545</v>
+      </c>
+      <c r="C223" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>602589</v>
+      </c>
+      <c r="C224" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>602603</v>
+      </c>
+      <c r="C225" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>602634</v>
+      </c>
+      <c r="C226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>620072</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>620090</v>
+      </c>
+      <c r="C228" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>620103</v>
+      </c>
+      <c r="C229" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>620119</v>
+      </c>
+      <c r="C230" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <sortState ref="A2:D187">
+  <autoFilter ref="A1:D187" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D187">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
